--- a/lista_problemow.xlsx
+++ b/lista_problemow.xlsx
@@ -997,7 +997,7 @@
     <t xml:space="preserve">Winer Process</t>
   </si>
   <si>
-    <t xml:space="preserve">Scores callibration</t>
+    <t xml:space="preserve">Scores calibration</t>
   </si>
   <si>
     <t xml:space="preserve">Variables exogenity</t>
@@ -1295,8 +1295,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1516,7 +1517,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1652,12 +1653,12 @@
   <dimension ref="A1:L381"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G233" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="F254" activeCellId="0" sqref="F254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.16"/>
@@ -2066,11 +2067,11 @@
       </c>
       <c r="K26" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B26)),"# "&amp;B26&amp;"",IF(NOT(ISBLANK(C26)),"## "&amp;C26, IF(NOT(ISBLANK(D26)),"### "&amp;D26,IF(NOT(ISBLANK(E26)),"#### "&amp;E26,IF(NOT(ISBLANK(F26)),"##### "&amp;F26,"") ) ) ) )</f>
-        <v>#### Univariate </v>
+        <v>#### Univariate</v>
       </c>
       <c r="L26" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B26)),"# (PART) &lt;lfg&gt;"&amp;B26&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C26)),"# "&amp;C26, IF(NOT(ISBLANK(D26)),"## "&amp;D26,IF(NOT(ISBLANK(E26)),"### "&amp;E26,IF(NOT(ISBLANK(F26)),"#### "&amp;F26,"") ) ) ) )</f>
-        <v>### Univariate </v>
+        <v>### Univariate</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,11 +4498,11 @@
       </c>
       <c r="K208" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B208)),"# "&amp;B208&amp;"",IF(NOT(ISBLANK(C208)),"## "&amp;C208, IF(NOT(ISBLANK(D208)),"### "&amp;D208,IF(NOT(ISBLANK(E208)),"#### "&amp;E208,IF(NOT(ISBLANK(F208)),"##### "&amp;F208,"") ) ) ) )</f>
-        <v>### Classification </v>
+        <v>### Classification</v>
       </c>
       <c r="L208" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B208)),"# (PART) &lt;lfg&gt;"&amp;B208&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C208)),"# "&amp;C208, IF(NOT(ISBLANK(D208)),"## "&amp;D208,IF(NOT(ISBLANK(E208)),"### "&amp;E208,IF(NOT(ISBLANK(F208)),"#### "&amp;F208,"") ) ) ) )</f>
-        <v>## Classification </v>
+        <v>## Classification</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,11 +4537,11 @@
       </c>
       <c r="K211" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B211)),"# "&amp;B211&amp;"",IF(NOT(ISBLANK(C211)),"## "&amp;C211, IF(NOT(ISBLANK(D211)),"### "&amp;D211,IF(NOT(ISBLANK(E211)),"#### "&amp;E211,IF(NOT(ISBLANK(F211)),"##### "&amp;F211,"") ) ) ) )</f>
-        <v>### Classification </v>
+        <v>### Classification</v>
       </c>
       <c r="L211" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B211)),"# (PART) &lt;lfg&gt;"&amp;B211&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C211)),"# "&amp;C211, IF(NOT(ISBLANK(D211)),"## "&amp;D211,IF(NOT(ISBLANK(E211)),"### "&amp;E211,IF(NOT(ISBLANK(F211)),"#### "&amp;F211,"") ) ) ) )</f>
-        <v>## Classification </v>
+        <v>## Classification</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,11 +4576,11 @@
       </c>
       <c r="K214" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B214)),"# "&amp;B214&amp;"",IF(NOT(ISBLANK(C214)),"## "&amp;C214, IF(NOT(ISBLANK(D214)),"### "&amp;D214,IF(NOT(ISBLANK(E214)),"#### "&amp;E214,IF(NOT(ISBLANK(F214)),"##### "&amp;F214,"") ) ) ) )</f>
-        <v>### Classification </v>
+        <v>### Classification</v>
       </c>
       <c r="L214" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B214)),"# (PART) &lt;lfg&gt;"&amp;B214&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C214)),"# "&amp;C214, IF(NOT(ISBLANK(D214)),"## "&amp;D214,IF(NOT(ISBLANK(E214)),"### "&amp;E214,IF(NOT(ISBLANK(F214)),"#### "&amp;F214,"") ) ) ) )</f>
-        <v>## Classification </v>
+        <v>## Classification</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,11 +5136,11 @@
       </c>
       <c r="K257" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B257)),"# "&amp;B257&amp;"",IF(NOT(ISBLANK(C257)),"## "&amp;C257, IF(NOT(ISBLANK(D257)),"### "&amp;D257,IF(NOT(ISBLANK(E257)),"#### "&amp;E257,IF(NOT(ISBLANK(F257)),"##### "&amp;F257,"") ) ) ) )</f>
-        <v>### Classification </v>
+        <v>### Classification</v>
       </c>
       <c r="L257" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B257)),"# (PART) &lt;lfg&gt;"&amp;B257&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C257)),"# "&amp;C257, IF(NOT(ISBLANK(D257)),"## "&amp;D257,IF(NOT(ISBLANK(E257)),"### "&amp;E257,IF(NOT(ISBLANK(F257)),"#### "&amp;F257,"") ) ) ) )</f>
-        <v>## Classification </v>
+        <v>## Classification</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,11 +5149,11 @@
       </c>
       <c r="K258" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B258)),"# "&amp;B258&amp;"",IF(NOT(ISBLANK(C258)),"## "&amp;C258, IF(NOT(ISBLANK(D258)),"### "&amp;D258,IF(NOT(ISBLANK(E258)),"#### "&amp;E258,IF(NOT(ISBLANK(F258)),"##### "&amp;F258,"") ) ) ) )</f>
-        <v>#### Scores callibration</v>
+        <v>#### Scores calibration</v>
       </c>
       <c r="L258" s="6" t="str">
         <f aca="false">IF(NOT(ISBLANK(B258)),"# (PART) &lt;lfg&gt;"&amp;B258&amp;"&lt;/lfg&gt; {-}",IF(NOT(ISBLANK(C258)),"# "&amp;C258, IF(NOT(ISBLANK(D258)),"## "&amp;D258,IF(NOT(ISBLANK(E258)),"### "&amp;E258,IF(NOT(ISBLANK(F258)),"#### "&amp;F258,"") ) ) ) )</f>
-        <v>### Scores callibration</v>
+        <v>### Scores calibration</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,7 +6662,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.36"/>
   </cols>
@@ -6766,7 +6767,7 @@
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
